--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H2">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I2">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J2">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N2">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O2">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P2">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q2">
-        <v>109386.6159147172</v>
+        <v>52354.95844703112</v>
       </c>
       <c r="R2">
-        <v>437546.4636588687</v>
+        <v>209419.8337881245</v>
       </c>
       <c r="S2">
-        <v>0.2324828900492151</v>
+        <v>0.3221933144996031</v>
       </c>
       <c r="T2">
-        <v>0.1529916326131533</v>
+        <v>0.244568167331967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H3">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I3">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J3">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P3">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q3">
-        <v>28.543615426004</v>
+        <v>14.582368865204</v>
       </c>
       <c r="R3">
-        <v>171.261692556024</v>
+        <v>87.49421319122401</v>
       </c>
       <c r="S3">
-        <v>6.066466314182733E-05</v>
+        <v>8.974014873279536E-05</v>
       </c>
       <c r="T3">
-        <v>5.988302528863772E-05</v>
+        <v>0.0001021789530879835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H4">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I4">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J4">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N4">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O4">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P4">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q4">
-        <v>45185.34178425005</v>
+        <v>17043.00939040749</v>
       </c>
       <c r="R4">
-        <v>271112.0507055003</v>
+        <v>102258.0563424449</v>
       </c>
       <c r="S4">
-        <v>0.09603385896912695</v>
+        <v>0.1048829728343454</v>
       </c>
       <c r="T4">
-        <v>0.09479650437964128</v>
+        <v>0.119420710933727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H5">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I5">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J5">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N5">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O5">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P5">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q5">
-        <v>701.862229654089</v>
+        <v>782.1953612456484</v>
       </c>
       <c r="R5">
-        <v>2807.448918616356</v>
+        <v>3128.781444982594</v>
       </c>
       <c r="S5">
-        <v>0.001491690351711621</v>
+        <v>0.004813643702552513</v>
       </c>
       <c r="T5">
-        <v>0.0009816470459969679</v>
+        <v>0.003653905793640489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H6">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I6">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J6">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N6">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O6">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P6">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q6">
-        <v>74277.75786153055</v>
+        <v>6562.245214518241</v>
       </c>
       <c r="R6">
-        <v>445666.5471691833</v>
+        <v>39373.47128710945</v>
       </c>
       <c r="S6">
-        <v>0.1578649057713568</v>
+        <v>0.04038416988457541</v>
       </c>
       <c r="T6">
-        <v>0.1558308849814841</v>
+        <v>0.04598178472402281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H7">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I7">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J7">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N7">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O7">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P7">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q7">
-        <v>32063.07109343842</v>
+        <v>25309.2668900141</v>
       </c>
       <c r="R7">
-        <v>192378.4265606305</v>
+        <v>151855.6013400846</v>
       </c>
       <c r="S7">
-        <v>0.06814467537296866</v>
+        <v>0.1557536636209692</v>
       </c>
       <c r="T7">
-        <v>0.06726666080886726</v>
+        <v>0.1773425441470496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J8">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N8">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O8">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P8">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q8">
-        <v>10816.98475794764</v>
+        <v>10133.99654609544</v>
       </c>
       <c r="R8">
-        <v>64901.90854768584</v>
+        <v>60803.97927657267</v>
       </c>
       <c r="S8">
-        <v>0.02298968532042897</v>
+        <v>0.06236478899352799</v>
       </c>
       <c r="T8">
-        <v>0.02269347320370867</v>
+        <v>0.07100911842575219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J9">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P9">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q9">
         <v>2.822610887245334</v>
@@ -1013,10 +1013,10 @@
         <v>25.403497985208</v>
       </c>
       <c r="S9">
-        <v>5.998985626018311E-06</v>
+        <v>1.737039593344974E-05</v>
       </c>
       <c r="T9">
-        <v>8.882536950114707E-06</v>
+        <v>2.966713722230042E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J10">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N10">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O10">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P10">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q10">
-        <v>4468.272002709675</v>
+        <v>3298.900494252149</v>
       </c>
       <c r="R10">
-        <v>40214.44802438708</v>
+        <v>29690.10444826934</v>
       </c>
       <c r="S10">
-        <v>0.00949656207964083</v>
+        <v>0.02030149036452442</v>
       </c>
       <c r="T10">
-        <v>0.01406130449881668</v>
+        <v>0.03467319356271819</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J11">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N11">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O11">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P11">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q11">
-        <v>69.40550246354201</v>
+        <v>151.4042857517497</v>
       </c>
       <c r="R11">
-        <v>416.433014781252</v>
+        <v>908.425714510498</v>
       </c>
       <c r="S11">
-        <v>0.0001475097447993291</v>
+        <v>0.0009317445778350625</v>
       </c>
       <c r="T11">
-        <v>0.0001456091457639411</v>
+        <v>0.001060892887441799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J12">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N12">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O12">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P12">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q12">
-        <v>7345.152493510876</v>
+        <v>1270.209590670209</v>
       </c>
       <c r="R12">
-        <v>66106.37244159789</v>
+        <v>11431.88631603188</v>
       </c>
       <c r="S12">
-        <v>0.0156108886381031</v>
+        <v>0.007816891661584849</v>
       </c>
       <c r="T12">
-        <v>0.02311462367082082</v>
+        <v>0.01335057637514873</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J13">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N13">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O13">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P13">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q13">
-        <v>3170.641567165001</v>
+        <v>4898.944261546922</v>
       </c>
       <c r="R13">
-        <v>28535.77410448501</v>
+        <v>44090.49835392229</v>
       </c>
       <c r="S13">
-        <v>0.006738666414357167</v>
+        <v>0.0301481872203858</v>
       </c>
       <c r="T13">
-        <v>0.009977762433772136</v>
+        <v>0.0514905020413752</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H14">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I14">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J14">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N14">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O14">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P14">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q14">
-        <v>103.2045155556533</v>
+        <v>93.49830779988</v>
       </c>
       <c r="R14">
-        <v>619.22709333392</v>
+        <v>560.9898467992799</v>
       </c>
       <c r="S14">
-        <v>0.0002193438734882677</v>
+        <v>0.0005753901938557588</v>
       </c>
       <c r="T14">
-        <v>0.0002165177228842029</v>
+        <v>0.0006551445306863813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H15">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I15">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J15">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P15">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q15">
-        <v>0.02693044279333334</v>
+        <v>0.026041980608</v>
       </c>
       <c r="R15">
-        <v>0.24237398514</v>
+        <v>0.234377825472</v>
       </c>
       <c r="S15">
-        <v>5.723613550473531E-08</v>
+        <v>1.602627964400898E-07</v>
       </c>
       <c r="T15">
-        <v>8.474800911300464E-08</v>
+        <v>2.737150259460723E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H16">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I16">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J16">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N16">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O16">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P16">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q16">
-        <v>42.63164437499277</v>
+        <v>30.43632513685867</v>
       </c>
       <c r="R16">
-        <v>383.6847993749349</v>
+        <v>273.926926231728</v>
       </c>
       <c r="S16">
-        <v>9.060640379967372E-05</v>
+        <v>0.0001873056682291793</v>
       </c>
       <c r="T16">
-        <v>0.0001341584694214033</v>
+        <v>0.0003199019172135911</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H17">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I17">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J17">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N17">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O17">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P17">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q17">
-        <v>0.6621957429849999</v>
+        <v>1.396886652472</v>
       </c>
       <c r="R17">
-        <v>3.97317445791</v>
+        <v>8.381319914832</v>
       </c>
       <c r="S17">
-        <v>1.407385892872542E-06</v>
+        <v>8.596464478059971E-06</v>
       </c>
       <c r="T17">
-        <v>1.389252336516308E-06</v>
+        <v>9.788012980027572E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H18">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I18">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J18">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N18">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O18">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P18">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q18">
-        <v>70.0798717700161</v>
+        <v>11.719211343584</v>
       </c>
       <c r="R18">
-        <v>630.7188459301449</v>
+        <v>105.472902092256</v>
       </c>
       <c r="S18">
-        <v>0.0001489430035578943</v>
+        <v>7.212022811422538E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002205359064082586</v>
+        <v>0.0001231751257809937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H19">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I19">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J19">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N19">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O19">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P19">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q19">
-        <v>30.25099269918611</v>
+        <v>45.198653500336</v>
       </c>
       <c r="R19">
-        <v>272.258934292675</v>
+        <v>406.787881503024</v>
       </c>
       <c r="S19">
-        <v>6.429340692875639E-05</v>
+        <v>0.0002781532908086598</v>
       </c>
       <c r="T19">
-        <v>9.519752143038329E-05</v>
+        <v>0.0004750618166028242</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H20">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I20">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J20">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N20">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O20">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P20">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q20">
-        <v>17171.32444006974</v>
+        <v>20548.18842906519</v>
       </c>
       <c r="R20">
-        <v>68685.29776027896</v>
+        <v>82192.75371626078</v>
       </c>
       <c r="S20">
-        <v>0.03649476764975076</v>
+        <v>0.1264539049079951</v>
       </c>
       <c r="T20">
-        <v>0.02401636560604996</v>
+        <v>0.09598771415648749</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H21">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I21">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J21">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P21">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q21">
-        <v>4.480728076958001</v>
+        <v>5.723264272810002</v>
       </c>
       <c r="R21">
-        <v>26.884368461748</v>
+        <v>34.33958563686001</v>
       </c>
       <c r="S21">
-        <v>9.5230353745289E-06</v>
+        <v>3.522106674345726E-05</v>
       </c>
       <c r="T21">
-        <v>9.400335197185241E-06</v>
+        <v>4.010302832463728E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H22">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I22">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J22">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N22">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O22">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P22">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q22">
-        <v>7093.11790317856</v>
+        <v>6689.012440086837</v>
       </c>
       <c r="R22">
-        <v>42558.70741907137</v>
+        <v>40134.07464052102</v>
       </c>
       <c r="S22">
-        <v>0.01507523142389228</v>
+        <v>0.04116429757042177</v>
       </c>
       <c r="T22">
-        <v>0.01488099361037374</v>
+        <v>0.04687004523328583</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H23">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I23">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J23">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N23">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O23">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P23">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q23">
-        <v>110.1771359945655</v>
+        <v>306.9947555679463</v>
       </c>
       <c r="R23">
-        <v>440.7085439782621</v>
+        <v>1227.979022271785</v>
       </c>
       <c r="S23">
-        <v>0.0002341630077790511</v>
+        <v>0.001889251004382013</v>
       </c>
       <c r="T23">
-        <v>0.0001540972793745795</v>
+        <v>0.00143407896743418</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H24">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I24">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J24">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N24">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O24">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P24">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q24">
-        <v>11659.99577055825</v>
+        <v>2575.539264768505</v>
       </c>
       <c r="R24">
-        <v>69959.9746233495</v>
+        <v>15453.23558861103</v>
       </c>
       <c r="S24">
-        <v>0.02478136371651199</v>
+        <v>0.01584991292045791</v>
       </c>
       <c r="T24">
-        <v>0.02446206660133309</v>
+        <v>0.01804685563392919</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H25">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I25">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J25">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N25">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O25">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P25">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q25">
-        <v>5033.20622625074</v>
+        <v>9933.339658433084</v>
       </c>
       <c r="R25">
-        <v>30199.23735750444</v>
+        <v>59600.0379505985</v>
       </c>
       <c r="S25">
-        <v>0.01069723493964532</v>
+        <v>0.06112994305666187</v>
       </c>
       <c r="T25">
-        <v>0.01055940571056444</v>
+        <v>0.06960311156220643</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H26">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I26">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J26">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N26">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O26">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P26">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q26">
-        <v>59021.08714790015</v>
+        <v>164.3698119032025</v>
       </c>
       <c r="R26">
-        <v>354126.5228874009</v>
+        <v>986.2188714192148</v>
       </c>
       <c r="S26">
-        <v>0.1254394132156738</v>
+        <v>0.001011534648706654</v>
       </c>
       <c r="T26">
-        <v>0.1238231808231517</v>
+        <v>0.001151742590986984</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H27">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I27">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J27">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P27">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q27">
-        <v>15.40110917123334</v>
+        <v>0.045781742524</v>
       </c>
       <c r="R27">
-        <v>138.6099825411</v>
+        <v>0.412035682716</v>
       </c>
       <c r="S27">
-        <v>3.273247225129732E-05</v>
+        <v>2.817416306862037E-07</v>
       </c>
       <c r="T27">
-        <v>4.846609283071905E-05</v>
+        <v>4.811903914467833E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H28">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I28">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J28">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N28">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O28">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P28">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q28">
-        <v>24380.38669497833</v>
+        <v>53.50699018508433</v>
       </c>
       <c r="R28">
-        <v>219423.480254805</v>
+        <v>481.5629116657589</v>
       </c>
       <c r="S28">
-        <v>0.0518164193303598</v>
+        <v>0.0003292829376241755</v>
       </c>
       <c r="T28">
-        <v>0.07672318088717386</v>
+        <v>0.0005623868409727445</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H29">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I29">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J29">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N29">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O29">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P29">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q29">
-        <v>378.699637755775</v>
+        <v>2.455723549653499</v>
       </c>
       <c r="R29">
-        <v>2272.19782653465</v>
+        <v>14.734341297921</v>
       </c>
       <c r="S29">
-        <v>0.0008048625100048289</v>
+        <v>1.511256494947059E-05</v>
       </c>
       <c r="T29">
-        <v>0.0007944922059126064</v>
+        <v>1.720730449878047E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H30">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I30">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J30">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N30">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O30">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P30">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q30">
-        <v>40077.60897653102</v>
+        <v>20.602346818102</v>
       </c>
       <c r="R30">
-        <v>360698.4807887792</v>
+        <v>185.4211213629179</v>
       </c>
       <c r="S30">
-        <v>0.08517823029090263</v>
+        <v>0.0001267871965653532</v>
       </c>
       <c r="T30">
-        <v>0.1261211186476033</v>
+        <v>0.0002165415902404303</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H31">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I31">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J31">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N31">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O31">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P31">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q31">
-        <v>17300.08097801057</v>
+        <v>79.459129784783</v>
       </c>
       <c r="R31">
-        <v>155700.7288020951</v>
+        <v>715.1321680630469</v>
       </c>
       <c r="S31">
-        <v>0.03676841805755343</v>
+        <v>0.0004889928509544091</v>
       </c>
       <c r="T31">
-        <v>0.05444200942522582</v>
+        <v>0.0008351575902799398</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H32">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I32">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J32">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>235.101616</v>
+        <v>220.2572175</v>
       </c>
       <c r="N32">
-        <v>470.2032320000001</v>
+        <v>440.514435</v>
       </c>
       <c r="O32">
-        <v>0.418075528241112</v>
+        <v>0.5129507012517006</v>
       </c>
       <c r="P32">
-        <v>0.3241848074150885</v>
+        <v>0.4137724133030643</v>
       </c>
       <c r="Q32">
-        <v>211.4625403472267</v>
+        <v>57.16071257116499</v>
       </c>
       <c r="R32">
-        <v>1268.77524208336</v>
+        <v>342.96427542699</v>
       </c>
       <c r="S32">
-        <v>0.000449428132555088</v>
+        <v>0.0003517680080119925</v>
       </c>
       <c r="T32">
-        <v>0.0004436374461406246</v>
+        <v>0.000400526267184304</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H33">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I33">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J33">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.184044</v>
       </c>
       <c r="O33">
-        <v>0.0001090936674230931</v>
+        <v>0.0001428715933923452</v>
       </c>
       <c r="P33">
-        <v>0.0001268903840624867</v>
+        <v>0.0001728713612618601</v>
       </c>
       <c r="Q33">
-        <v>0.05517956084666668</v>
+        <v>0.015920910264</v>
       </c>
       <c r="R33">
-        <v>0.4966160476200001</v>
+        <v>0.143288192376</v>
       </c>
       <c r="S33">
-        <v>1.172748939164652E-07</v>
+        <v>9.797755551651659E-08</v>
       </c>
       <c r="T33">
-        <v>1.736457867169767E-07</v>
+        <v>1.6733720954608E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H34">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I34">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J34">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>97.11560033333332</v>
+        <v>71.69991033333334</v>
       </c>
       <c r="N34">
-        <v>291.346801</v>
+        <v>215.099731</v>
       </c>
       <c r="O34">
-        <v>0.1726983276448897</v>
+        <v>0.1669798597413381</v>
       </c>
       <c r="P34">
-        <v>0.2008710279838891</v>
+        <v>0.202041812311349</v>
       </c>
       <c r="Q34">
-        <v>87.35078857915055</v>
+        <v>18.607417329886</v>
       </c>
       <c r="R34">
-        <v>786.157097212355</v>
+        <v>167.466755968974</v>
       </c>
       <c r="S34">
-        <v>0.0001856494380701163</v>
+        <v>0.0001145103661930858</v>
       </c>
       <c r="T34">
-        <v>0.0002748861384621039</v>
+        <v>0.0001955738234316383</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H35">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I35">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J35">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.508493</v>
+        <v>3.2906945</v>
       </c>
       <c r="N35">
-        <v>3.016986</v>
+        <v>6.581389</v>
       </c>
       <c r="O35">
-        <v>0.002682516685989175</v>
+        <v>0.007663603810758729</v>
       </c>
       <c r="P35">
-        <v>0.00208008146014619</v>
+        <v>0.006181856922387211</v>
       </c>
       <c r="Q35">
-        <v>1.356816543005</v>
+        <v>0.8539944552509998</v>
       </c>
       <c r="R35">
-        <v>8.140899258030002</v>
+        <v>5.123966731505999</v>
       </c>
       <c r="S35">
-        <v>2.883685801472425E-06</v>
+        <v>5.255496561609926E-06</v>
       </c>
       <c r="T35">
-        <v>2.846530761579321E-06</v>
+        <v>5.983956391934896E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H36">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I36">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J36">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>159.6431223333333</v>
+        <v>27.607354</v>
       </c>
       <c r="N36">
-        <v>478.929367</v>
+        <v>82.82206199999999</v>
       </c>
       <c r="O36">
-        <v>0.2838895105662259</v>
+        <v>0.06429397299547716</v>
       </c>
       <c r="P36">
-        <v>0.3302011003750931</v>
+        <v>0.07779423725008243</v>
       </c>
       <c r="Q36">
-        <v>143.5912724545872</v>
+        <v>7.164605295371999</v>
       </c>
       <c r="R36">
-        <v>1292.321452091285</v>
+        <v>64.48144765834799</v>
       </c>
       <c r="S36">
-        <v>0.0003051791457934234</v>
+        <v>4.40911041794211E-05</v>
       </c>
       <c r="T36">
-        <v>0.0004518705674435387</v>
+        <v>7.53038009602727E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H37">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I37">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J37">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>68.91226833333333</v>
+        <v>106.476041</v>
       </c>
       <c r="N37">
-        <v>206.736805</v>
+        <v>319.428123</v>
       </c>
       <c r="O37">
-        <v>0.1225450231943603</v>
+        <v>0.2479689906073331</v>
       </c>
       <c r="P37">
-        <v>0.1425360923817208</v>
+        <v>0.3000368088518554</v>
       </c>
       <c r="Q37">
-        <v>61.98325460619723</v>
+        <v>27.632449208238</v>
       </c>
       <c r="R37">
-        <v>557.8492914557751</v>
+        <v>248.692042874142</v>
       </c>
       <c r="S37">
-        <v>0.000131735002906935</v>
+        <v>0.0001700505675532437</v>
       </c>
       <c r="T37">
-        <v>0.0001950564818607463</v>
+        <v>0.0002904316943413641</v>
       </c>
     </row>
   </sheetData>
